--- a/Sales Data 2023/05May2023.xlsx
+++ b/Sales Data 2023/05May2023.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACEAE5-4E4C-4A96-ADEA-C290B046EF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9222A5-07BA-4A3E-ABBC-E73DEEA234AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="118">
   <si>
     <t>ORDERNUMBER_MONTH</t>
   </si>
@@ -238,6 +238,150 @@
   </si>
   <si>
     <t>SO-03-AUTOCAD</t>
+  </si>
+  <si>
+    <t>ADP-DELL-195V334A</t>
+  </si>
+  <si>
+    <t>SBT-HP-KC04XL</t>
+  </si>
+  <si>
+    <t>SLED-14INT-40PIN</t>
+  </si>
+  <si>
+    <t>SSDSATA-128GB-WIN10-CDT</t>
+  </si>
+  <si>
+    <t>DDR3-4GB-SODIMM</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>SLED-17.5INS-SF-FHD</t>
+  </si>
+  <si>
+    <t>SCS-LPT-SPEAKER</t>
+  </si>
+  <si>
+    <t>SBT-ASUS-C21N1401</t>
+  </si>
+  <si>
+    <t>SBT-HP-HT03XL</t>
+  </si>
+  <si>
+    <t>ADP-ACER-19V237A</t>
+  </si>
+  <si>
+    <t>SRD-MOVDATA</t>
+  </si>
+  <si>
+    <t>SSDSATA-512GB-WIN10-CDS</t>
+  </si>
+  <si>
+    <t>SSDNVME-256GB-WIN10</t>
+  </si>
+  <si>
+    <t>SLED-14INS-60PIN</t>
+  </si>
+  <si>
+    <t>PSU-POWERCABLE</t>
+  </si>
+  <si>
+    <t>HDDCASE-KSB2</t>
+  </si>
+  <si>
+    <t>VGA-CABLE</t>
+  </si>
+  <si>
+    <t>RAFI</t>
+  </si>
+  <si>
+    <t>DDR3-4GB</t>
+  </si>
+  <si>
+    <t>SO-01-WIN10-CDT-SSDMDR</t>
+  </si>
+  <si>
+    <t>SSDNVME-512GB-WIN10</t>
+  </si>
+  <si>
+    <t>SSDSATA-512GB</t>
+  </si>
+  <si>
+    <t>SDIS-ENGSEL</t>
+  </si>
+  <si>
+    <t>SO-02-AKMSOFFICE</t>
+  </si>
+  <si>
+    <t>SCS-LPT-CLEANPASTA-FAN</t>
+  </si>
+  <si>
+    <t>SBT-LNV-G770</t>
+  </si>
+  <si>
+    <t>G41-QWERTY</t>
+  </si>
+  <si>
+    <t>ADP-LNV-20V45A</t>
+  </si>
+  <si>
+    <t>ADP-ASUS-19V342A</t>
+  </si>
+  <si>
+    <t>DDR4-8GB-SODIMM-1600</t>
+  </si>
+  <si>
+    <t>SO-02-MSOFFICE</t>
+  </si>
+  <si>
+    <t>H61-QWERTY</t>
+  </si>
+  <si>
+    <t>PT SHAVIRA BAROKAH UTAMA</t>
+  </si>
+  <si>
+    <t>SMB-05-DEFAULT</t>
+  </si>
+  <si>
+    <t>SSDM2-256GB-WIN10</t>
+  </si>
+  <si>
+    <t>SLED-10INS-SECOND</t>
+  </si>
+  <si>
+    <t>BT-CMOS</t>
+  </si>
+  <si>
+    <t>ADP-ACER-19V342A-SMALL</t>
+  </si>
+  <si>
+    <t>SO-01-WINXP</t>
+  </si>
+  <si>
+    <t>HDDCASE-JOINT3.0</t>
+  </si>
+  <si>
+    <t>HDD25-1TB-WDMYPS</t>
+  </si>
+  <si>
+    <t>ADP-LNV-20V225A-USB</t>
+  </si>
+  <si>
+    <t>SBT-TOSH-L640</t>
+  </si>
+  <si>
+    <t>HDD25-1TB-SG1T</t>
+  </si>
+  <si>
+    <t>ADP-HP-19V333A</t>
+  </si>
+  <si>
+    <t>ADP-ASUS-19V158A</t>
+  </si>
+  <si>
+    <t>KEY-NONTN-JP</t>
   </si>
 </sst>
 </file>
@@ -569,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,8 +727,7 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -677,7 +820,7 @@
         <v>100000</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H71" si="0">G3*D3</f>
+        <f t="shared" ref="H3:H183" si="0">G3*D3</f>
         <v>100000</v>
       </c>
     </row>
@@ -2522,11 +2665,3046 @@
         <v>61</v>
       </c>
       <c r="G71" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="3">
+        <v>650000</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="0"/>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" s="3">
+        <v>700000</v>
+      </c>
+      <c r="H75" s="4">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" s="3">
+        <v>350000</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H77" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H79" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H80" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="3">
+        <v>450000</v>
+      </c>
+      <c r="H81" s="4">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H82" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="I82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="3">
+        <v>550000</v>
+      </c>
+      <c r="H83" s="4">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H84" s="4">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="H85" s="4">
+        <f t="shared" si="0"/>
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="3">
+        <v>700000</v>
+      </c>
+      <c r="H86" s="4">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H87" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="3">
+        <v>550000</v>
+      </c>
+      <c r="H88" s="4">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="3">
+        <v>480000</v>
+      </c>
+      <c r="H91" s="4">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="3">
+        <v>160000</v>
+      </c>
+      <c r="H92" s="4">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H94" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>82</v>
+      </c>
+      <c r="G95" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H95" s="4">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H96" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="3">
+        <v>550000</v>
+      </c>
+      <c r="H97" s="4">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" s="3">
+        <v>550000</v>
+      </c>
+      <c r="H98" s="4">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H99" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H100" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H101" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H102" s="4">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H103" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="3">
+        <v>70000</v>
+      </c>
+      <c r="H104" s="4">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45063</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>56</v>
+      </c>
+      <c r="G106" s="3">
         <v>500000</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H106" s="4">
         <f t="shared" si="0"/>
         <v>500000</v>
+      </c>
+      <c r="I106" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H107" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H108" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H109" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H110" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" s="3">
+        <v>925000</v>
+      </c>
+      <c r="H111" s="4">
+        <f t="shared" si="0"/>
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" t="s">
+        <v>92</v>
+      </c>
+      <c r="G112" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H112" s="4">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H113" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H114" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="3">
+        <v>170000</v>
+      </c>
+      <c r="H115" s="4">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H116" s="4">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H117" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118" s="3">
+        <v>350000</v>
+      </c>
+      <c r="H118" s="4">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H119" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>93</v>
+      </c>
+      <c r="G120" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H120" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>93</v>
+      </c>
+      <c r="G121" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H121" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H122" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" t="s">
+        <v>93</v>
+      </c>
+      <c r="G123" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H123" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>94</v>
+      </c>
+      <c r="G124" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H124" s="4">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="3">
+        <v>450000</v>
+      </c>
+      <c r="H125" s="4">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H126" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H127" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H128" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H129" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H130" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H131" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" s="3">
+        <v>350000</v>
+      </c>
+      <c r="H132" s="4">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H133" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" t="s">
+        <v>97</v>
+      </c>
+      <c r="G134" s="3">
+        <v>550000</v>
+      </c>
+      <c r="H134" s="4">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H135" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G136" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H136" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" t="s">
+        <v>99</v>
+      </c>
+      <c r="G137" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H137" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>61</v>
+      </c>
+      <c r="G138" s="3">
+        <v>535000</v>
+      </c>
+      <c r="H138" s="4">
+        <f t="shared" si="0"/>
+        <v>535000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H139" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H140" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>100</v>
+      </c>
+      <c r="G141" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H141" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>101</v>
+      </c>
+      <c r="G142" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H142" s="4">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H143" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" t="s">
+        <v>102</v>
+      </c>
+      <c r="G144" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H144" s="4">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H145" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>52</v>
+      </c>
+      <c r="G146" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H146" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>101</v>
+      </c>
+      <c r="G147" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H147" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="I147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" t="s">
+        <v>104</v>
+      </c>
+      <c r="G148" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H148" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H149" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" s="3">
+        <v>320000</v>
+      </c>
+      <c r="H150" s="4">
+        <f t="shared" si="0"/>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>105</v>
+      </c>
+      <c r="G151" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H151" s="4">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H152" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" t="s">
+        <v>106</v>
+      </c>
+      <c r="G153" s="3">
+        <v>325000</v>
+      </c>
+      <c r="H153" s="4">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>107</v>
+      </c>
+      <c r="G154" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H154" s="4">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" t="s">
+        <v>63</v>
+      </c>
+      <c r="G155" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H155" s="4">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H156" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" t="s">
+        <v>108</v>
+      </c>
+      <c r="G157" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H157" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>109</v>
+      </c>
+      <c r="G158" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H158" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H159" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" t="s">
+        <v>63</v>
+      </c>
+      <c r="G160" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H160" s="4">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" t="s">
+        <v>110</v>
+      </c>
+      <c r="G161" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H161" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>111</v>
+      </c>
+      <c r="G162" s="3">
+        <v>800000</v>
+      </c>
+      <c r="H162" s="4">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H163" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H164" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" t="s">
+        <v>112</v>
+      </c>
+      <c r="G165" s="3">
+        <v>210000</v>
+      </c>
+      <c r="H165" s="4">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H166" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>113</v>
+      </c>
+      <c r="G167" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H167" s="4">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>63</v>
+      </c>
+      <c r="G168" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H168" s="4">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="s">
+        <v>114</v>
+      </c>
+      <c r="G169" s="3">
+        <v>900000</v>
+      </c>
+      <c r="H169" s="4">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H170" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" t="s">
+        <v>115</v>
+      </c>
+      <c r="G171" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H171" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" t="s">
+        <v>112</v>
+      </c>
+      <c r="G172" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H172" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C173">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H173" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H174" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" t="s">
+        <v>116</v>
+      </c>
+      <c r="G175" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H175" s="4">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C176">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H176" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C177">
+        <v>13</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" t="s">
+        <v>35</v>
+      </c>
+      <c r="G177" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H177" s="4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C178">
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H178" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H179" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" t="s">
+        <v>117</v>
+      </c>
+      <c r="G180" s="3">
+        <v>70000</v>
+      </c>
+      <c r="H180" s="4">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" t="s">
+        <v>93</v>
+      </c>
+      <c r="G181" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H181" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H182" s="4">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" t="s">
+        <v>44</v>
+      </c>
+      <c r="G183" s="3">
+        <v>350000</v>
+      </c>
+      <c r="H183" s="4">
+        <f t="shared" si="0"/>
+        <v>350000</v>
       </c>
     </row>
   </sheetData>

--- a/Sales Data 2023/05May2023.xlsx
+++ b/Sales Data 2023/05May2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9222A5-07BA-4A3E-ABBC-E73DEEA234AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F2A5A-B0B9-4267-91E3-7BCC8601B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$K$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="120">
   <si>
     <t>ORDERNUMBER_MONTH</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>KEY-NONTN-JP</t>
+  </si>
+  <si>
+    <t>EXTERNALSTORAGE</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
   </si>
 </sst>
 </file>
@@ -713,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +738,7 @@
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +769,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -796,8 +805,12 @@
       <c r="J2" s="2">
         <v>6285697474763</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -823,8 +836,12 @@
         <f t="shared" ref="H3:H183" si="0">G3*D3</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,8 +867,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -877,8 +898,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -904,8 +929,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -931,8 +960,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -961,8 +994,12 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>595000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -988,8 +1025,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1015,8 +1056,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1042,8 +1087,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1070,8 +1119,12 @@
         <v>750000</v>
       </c>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1097,8 +1150,12 @@
         <f t="shared" si="0"/>
         <v>730000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1130,8 +1187,12 @@
       <c r="J14">
         <v>6281211952538</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1157,8 +1218,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1184,8 +1249,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1211,8 +1280,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1238,8 +1311,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1265,8 +1342,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1292,8 +1373,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1319,8 +1404,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1346,8 +1435,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1373,8 +1466,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1400,8 +1497,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1428,8 +1529,12 @@
         <v>350000</v>
       </c>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1455,8 +1560,12 @@
         <f t="shared" si="0"/>
         <v>420000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>218400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1482,8 +1591,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1509,8 +1622,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1536,8 +1653,12 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1564,8 +1685,12 @@
         <v>350000</v>
       </c>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1591,8 +1716,12 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1618,8 +1747,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1645,8 +1778,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1672,8 +1809,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1699,8 +1840,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1726,8 +1871,12 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1753,8 +1902,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1780,8 +1933,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1807,8 +1964,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1834,8 +1995,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1861,8 +2026,12 @@
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1888,8 +2057,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1915,8 +2088,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1942,8 +2119,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1969,8 +2150,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1996,8 +2181,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2023,8 +2212,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2050,8 +2243,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2077,8 +2274,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2104,8 +2305,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2131,8 +2336,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2158,8 +2367,12 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2185,8 +2398,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2212,8 +2429,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2239,8 +2460,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2266,8 +2491,12 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2293,8 +2522,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2320,8 +2553,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2347,8 +2584,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2374,8 +2615,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2401,8 +2646,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2428,8 +2677,12 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2455,8 +2708,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2482,8 +2739,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2509,8 +2770,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2536,8 +2801,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2563,8 +2832,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="2">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2590,8 +2863,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2617,8 +2894,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2644,8 +2925,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2671,8 +2956,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2698,8 +2987,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2725,8 +3018,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2752,8 +3049,12 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2779,8 +3080,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2806,8 +3111,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2833,8 +3142,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2860,8 +3173,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2887,8 +3204,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2914,8 +3235,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2941,8 +3266,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2971,8 +3300,12 @@
       <c r="I82" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2998,8 +3331,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3025,8 +3362,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3052,8 +3393,12 @@
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3079,8 +3424,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3106,8 +3455,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3133,8 +3486,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="2"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3160,8 +3517,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3187,8 +3548,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3214,8 +3579,12 @@
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3241,8 +3610,12 @@
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3268,8 +3641,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3295,8 +3672,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3322,8 +3703,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3349,8 +3734,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3376,8 +3765,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="2"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3403,8 +3796,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="2"/>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3430,8 +3827,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3457,8 +3858,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3484,8 +3889,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="2"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3511,8 +3920,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="2"/>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3538,8 +3951,12 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3565,8 +3982,12 @@
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="2"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3593,8 +4014,12 @@
         <v>30000</v>
       </c>
       <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3623,8 +4048,12 @@
       <c r="I106" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3650,8 +4079,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="2"/>
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3677,8 +4110,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3704,8 +4141,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3731,8 +4172,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3758,8 +4203,12 @@
         <f t="shared" si="0"/>
         <v>925000</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="2"/>
+        <v>481000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3785,8 +4234,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f t="shared" si="2"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3812,8 +4265,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3839,8 +4296,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3866,8 +4327,12 @@
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="2"/>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3893,8 +4358,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="2"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3920,8 +4389,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3947,8 +4420,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f t="shared" si="2"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3974,8 +4451,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4001,8 +4482,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4028,8 +4513,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4055,8 +4544,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4082,8 +4575,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4109,8 +4606,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4136,8 +4637,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="2"/>
+        <v>292500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4163,8 +4668,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4190,8 +4699,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4217,8 +4730,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4244,8 +4761,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4271,8 +4792,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4298,8 +4823,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" ref="K131:K183" si="3">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4325,8 +4854,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" si="3"/>
+        <v>244999.99999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4352,8 +4885,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4379,8 +4916,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4406,8 +4947,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4433,8 +4978,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4460,8 +5009,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="3"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4487,8 +5040,12 @@
         <f t="shared" si="0"/>
         <v>535000</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <f t="shared" si="3"/>
+        <v>347750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4514,8 +5071,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4541,8 +5102,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f t="shared" si="3"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4569,8 +5134,12 @@
         <v>300000</v>
       </c>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="3"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4596,8 +5165,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4623,8 +5196,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4650,8 +5227,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4677,8 +5258,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4704,8 +5289,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="3"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4734,8 +5323,12 @@
       <c r="I147" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4761,8 +5354,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4788,8 +5385,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4815,8 +5416,12 @@
         <f t="shared" si="0"/>
         <v>320000</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <f t="shared" si="3"/>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4842,8 +5447,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="3"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4869,8 +5478,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4896,8 +5509,12 @@
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4923,8 +5540,12 @@
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4950,8 +5571,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="3"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4977,8 +5602,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5004,8 +5633,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5031,8 +5664,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5058,8 +5695,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5085,8 +5726,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <f t="shared" si="3"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5112,8 +5757,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5127,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F162" t="s">
         <v>111</v>
@@ -5139,8 +5788,12 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5166,8 +5819,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5193,8 +5850,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5220,8 +5881,12 @@
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <f t="shared" si="3"/>
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5247,8 +5912,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5274,8 +5943,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="3"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5301,8 +5974,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <f t="shared" si="3"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5316,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F169" t="s">
         <v>114</v>
@@ -5328,8 +6005,12 @@
         <f t="shared" si="0"/>
         <v>900000</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5355,8 +6036,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5382,8 +6067,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5409,8 +6098,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5436,8 +6129,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5463,8 +6160,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5490,8 +6191,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <f t="shared" si="3"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5517,8 +6222,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5544,8 +6253,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5571,8 +6284,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5598,8 +6315,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5625,8 +6346,12 @@
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <f t="shared" si="3"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5652,8 +6377,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5679,8 +6408,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5706,9 +6439,13 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
+      <c r="K183">
+        <f t="shared" si="3"/>
+        <v>182000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales Data 2023/05May2023.xlsx
+++ b/Sales Data 2023/05May2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F2A5A-B0B9-4267-91E3-7BCC8601B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A58B9-CC3C-40C2-8DA6-53E05A94DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,6 +736,7 @@
     <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -805,9 +806,9 @@
       <c r="J2" s="2">
         <v>6285697474763</v>
       </c>
-      <c r="K2">
-        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
-        <v>130000</v>
+      <c r="K2" s="3">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*52%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*45%,IF(E2="KEYBOARD",150000,IF(E2="ADAPTOR",H2*40%,IF(E2="MAINBOARD",100000,IF(E2="ACCESSORIES",H2*35%,IF(E2="VGA",100000,IF(E2="POWERSUPPLY",H2*30%,IF(E2="PROCESSOR",150000,IF(E2="SECOND",H2*150%,IF(E2="CASING",100000,IF(E2="MONITOR",100000,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>104000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -836,8 +837,8 @@
         <f t="shared" ref="H3:H183" si="0">G3*D3</f>
         <v>100000</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*52%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*45%,IF(E3="KEYBOARD",150000,IF(E3="ADAPTOR",H3*40%,IF(E3="MAINBOARD",100000,IF(E3="ACCESSORIES",H3*35%,IF(E3="VGA",100000,IF(E3="POWERSUPPLY",H3*30%,IF(E3="PROCESSOR",150000,IF(E3="SECOND",H3*150%,IF(E3="CASING",100000,IF(E3="MONITOR",100000,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
         <v>100000</v>
       </c>
     </row>
@@ -867,7 +868,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -898,7 +899,7 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -929,7 +930,7 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>234000</v>
       </c>
@@ -960,9 +961,9 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>162500</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -994,9 +995,9 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>595000</v>
+        <v>382500</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1025,7 +1026,7 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>234000</v>
       </c>
@@ -1056,9 +1057,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>195000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1087,9 +1088,9 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,9 +1120,9 @@
         <v>750000</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>112500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,7 +1151,7 @@
         <f t="shared" si="0"/>
         <v>730000</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>365000</v>
       </c>
@@ -1187,7 +1188,7 @@
       <c r="J14">
         <v>6281211952538</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
@@ -1218,9 +1219,9 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>97500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1249,9 +1250,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,7 +1281,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1311,7 +1312,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1342,9 +1343,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1373,9 +1374,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1404,7 +1405,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1435,9 +1436,9 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f t="shared" si="1"/>
-        <v>37500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1466,7 +1467,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1497,7 +1498,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f t="shared" si="1"/>
         <v>260000</v>
       </c>
@@ -1529,9 +1530,9 @@
         <v>350000</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="K25">
+      <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>227500</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1560,7 +1561,7 @@
         <f t="shared" si="0"/>
         <v>420000</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <f t="shared" si="1"/>
         <v>218400</v>
       </c>
@@ -1591,7 +1592,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1622,7 +1623,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1653,9 +1654,9 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1685,9 +1686,9 @@
         <v>350000</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="K30">
+      <c r="K30" s="3">
         <f t="shared" si="1"/>
-        <v>70000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1716,9 +1717,9 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1747,9 +1748,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1778,9 +1779,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1809,7 +1810,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1840,9 +1841,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1871,7 +1872,7 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>390000</v>
       </c>
@@ -1902,7 +1903,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -1933,7 +1934,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1964,9 +1965,9 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <f t="shared" si="1"/>
-        <v>280000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1995,7 +1996,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
@@ -2026,9 +2027,9 @@
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <f t="shared" si="1"/>
-        <v>81000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,7 +2058,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2088,7 +2089,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
@@ -2119,7 +2120,7 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <f t="shared" si="1"/>
         <v>338000</v>
       </c>
@@ -2150,9 +2151,9 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <f t="shared" si="1"/>
-        <v>260000</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2181,7 +2182,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2212,7 +2213,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -2243,7 +2244,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2274,9 +2275,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <f t="shared" si="1"/>
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2305,7 +2306,7 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <f t="shared" si="1"/>
         <v>234000</v>
       </c>
@@ -2336,7 +2337,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <f t="shared" si="1"/>
         <v>286000</v>
       </c>
@@ -2367,9 +2368,9 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2398,7 +2399,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2429,7 +2430,7 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <f t="shared" si="1"/>
         <v>156000</v>
       </c>
@@ -2460,9 +2461,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <f t="shared" si="1"/>
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2491,9 +2492,9 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2522,7 +2523,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2553,7 +2554,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2584,7 +2585,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2615,7 +2616,7 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <f t="shared" si="1"/>
         <v>208000</v>
       </c>
@@ -2646,7 +2647,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2677,9 +2678,9 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2708,9 +2709,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <f t="shared" si="1"/>
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2739,7 +2740,7 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <f t="shared" si="1"/>
         <v>325000</v>
       </c>
@@ -2770,7 +2771,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2801,7 +2802,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <f t="shared" si="1"/>
         <v>260000</v>
       </c>
@@ -2832,8 +2833,8 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K130" si="2">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K130" si="2">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*52%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*45%,IF(E67="KEYBOARD",150000,IF(E67="ADAPTOR",H67*40%,IF(E67="MAINBOARD",100000,IF(E67="ACCESSORIES",H67*35%,IF(E67="VGA",100000,IF(E67="POWERSUPPLY",H67*30%,IF(E67="PROCESSOR",150000,IF(E67="SECOND",H67*150%,IF(E67="CASING",100000,IF(E67="MONITOR",100000,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
         <v>182000</v>
       </c>
     </row>
@@ -2863,7 +2864,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -2894,7 +2895,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -2925,7 +2926,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -2956,9 +2957,9 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <f t="shared" si="2"/>
-        <v>390000</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2987,9 +2988,9 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <f t="shared" si="2"/>
-        <v>112500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,7 +3019,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -3049,9 +3050,9 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <f t="shared" si="2"/>
-        <v>455000</v>
+        <v>292500</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3080,7 +3081,7 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
@@ -3111,7 +3112,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <f t="shared" si="2"/>
         <v>175000</v>
       </c>
@@ -3142,7 +3143,7 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <f t="shared" si="2"/>
         <v>156000</v>
       </c>
@@ -3173,7 +3174,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -3204,7 +3205,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -3235,9 +3236,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3266,7 +3267,7 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <f t="shared" si="2"/>
         <v>234000</v>
       </c>
@@ -3300,9 +3301,9 @@
       <c r="I82" t="s">
         <v>75</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <f t="shared" si="2"/>
-        <v>130000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3331,7 +3332,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <f t="shared" si="2"/>
         <v>286000</v>
       </c>
@@ -3362,9 +3363,9 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <f t="shared" si="2"/>
-        <v>260000</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3393,7 +3394,7 @@
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <f t="shared" si="2"/>
         <v>525000</v>
       </c>
@@ -3424,7 +3425,7 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
@@ -3455,7 +3456,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
@@ -3486,7 +3487,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <f t="shared" si="2"/>
         <v>550000</v>
       </c>
@@ -3517,9 +3518,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <f t="shared" si="2"/>
-        <v>130000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3548,9 +3549,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,9 +3580,9 @@
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <f t="shared" si="2"/>
-        <v>336000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3610,9 +3611,9 @@
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3641,7 +3642,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -3672,9 +3673,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3703,7 +3704,7 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <f t="shared" si="2"/>
         <v>312000</v>
       </c>
@@ -3734,9 +3735,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <f t="shared" si="2"/>
-        <v>130000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3765,7 +3766,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <f t="shared" si="2"/>
         <v>286000</v>
       </c>
@@ -3796,7 +3797,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
@@ -3827,7 +3828,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -3858,7 +3859,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -3889,9 +3890,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <f t="shared" si="2"/>
-        <v>195000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -3920,9 +3921,9 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <f t="shared" si="2"/>
-        <v>37500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3951,9 +3952,9 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -3982,9 +3983,9 @@
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <f t="shared" si="2"/>
-        <v>17500</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4014,9 +4015,9 @@
         <v>30000</v>
       </c>
       <c r="I105" s="4"/>
-      <c r="K105">
+      <c r="K105" s="3">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4048,7 +4049,7 @@
       <c r="I106" t="s">
         <v>88</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
@@ -4079,9 +4080,9 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <f t="shared" si="2"/>
-        <v>162500</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4110,7 +4111,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4141,7 +4142,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
@@ -4172,7 +4173,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4203,7 +4204,7 @@
         <f t="shared" si="0"/>
         <v>925000</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <f t="shared" si="2"/>
         <v>481000</v>
       </c>
@@ -4234,7 +4235,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <f t="shared" si="2"/>
         <v>260000</v>
       </c>
@@ -4265,7 +4266,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4296,7 +4297,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
@@ -4327,9 +4328,9 @@
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <f t="shared" si="2"/>
-        <v>68000</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4358,7 +4359,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
         <f t="shared" si="2"/>
         <v>260000</v>
       </c>
@@ -4389,7 +4390,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4420,7 +4421,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
         <f t="shared" si="2"/>
         <v>182000</v>
       </c>
@@ -4451,7 +4452,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4482,7 +4483,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="3">
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
@@ -4513,7 +4514,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
@@ -4544,7 +4545,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4575,7 +4576,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="3">
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
@@ -4606,7 +4607,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="3">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
@@ -4637,9 +4638,9 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="3">
         <f t="shared" si="2"/>
-        <v>292500</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4668,7 +4669,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="3">
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
@@ -4699,7 +4700,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4730,9 +4731,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="3">
         <f t="shared" si="2"/>
-        <v>180000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -4761,7 +4762,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="3">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -4792,9 +4793,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="3">
         <f t="shared" si="2"/>
-        <v>180000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -4823,8 +4824,8 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K131">
-        <f t="shared" ref="K131:K183" si="3">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+      <c r="K131" s="3">
+        <f t="shared" ref="K131:K183" si="3">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*52%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*45%,IF(E131="KEYBOARD",150000,IF(E131="ADAPTOR",H131*40%,IF(E131="MAINBOARD",100000,IF(E131="ACCESSORIES",H131*35%,IF(E131="VGA",100000,IF(E131="POWERSUPPLY",H131*30%,IF(E131="PROCESSOR",150000,IF(E131="SECOND",H131*150%,IF(E131="CASING",100000,IF(E131="MONITOR",100000,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
         <v>100000</v>
       </c>
     </row>
@@ -4854,9 +4855,9 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="3">
         <f t="shared" si="3"/>
-        <v>244999.99999999997</v>
+        <v>157500</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -4885,7 +4886,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -4916,9 +4917,9 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="3">
         <f t="shared" si="3"/>
-        <v>82500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -4947,7 +4948,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="3">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
@@ -4978,9 +4979,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5009,9 +5010,9 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="3">
         <f t="shared" si="3"/>
-        <v>112500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5040,9 +5041,9 @@
         <f t="shared" si="0"/>
         <v>535000</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="3">
         <f t="shared" si="3"/>
-        <v>347750</v>
+        <v>278200</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5071,7 +5072,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="3">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
@@ -5102,7 +5103,7 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="3">
         <f t="shared" si="3"/>
         <v>156000</v>
       </c>
@@ -5134,9 +5135,9 @@
         <v>300000</v>
       </c>
       <c r="I141" s="4"/>
-      <c r="K141">
+      <c r="K141" s="3">
         <f t="shared" si="3"/>
-        <v>195000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5165,7 +5166,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="3">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
@@ -5196,7 +5197,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5227,9 +5228,9 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5258,7 +5259,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5289,7 +5290,7 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="3">
         <f t="shared" si="3"/>
         <v>156000</v>
       </c>
@@ -5323,7 +5324,7 @@
       <c r="I147" t="s">
         <v>103</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="3">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
@@ -5354,7 +5355,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="3">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
@@ -5385,7 +5386,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5416,9 +5417,9 @@
         <f t="shared" si="0"/>
         <v>320000</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="3">
         <f t="shared" si="3"/>
-        <v>224000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -5447,7 +5448,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="3">
         <f t="shared" si="3"/>
         <v>260000</v>
       </c>
@@ -5478,7 +5479,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5509,7 +5510,7 @@
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="3">
         <f t="shared" si="3"/>
         <v>162500</v>
       </c>
@@ -5540,7 +5541,7 @@
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="3">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
@@ -5571,7 +5572,7 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="3">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
@@ -5602,7 +5603,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5633,9 +5634,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -5664,7 +5665,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5695,7 +5696,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5726,7 +5727,7 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="3">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
@@ -5757,9 +5758,9 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="3">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -5788,7 +5789,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5819,7 +5820,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5850,7 +5851,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5881,9 +5882,9 @@
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="3">
         <f t="shared" si="3"/>
-        <v>94500</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -5912,7 +5913,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -5943,9 +5944,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="3">
         <f t="shared" si="3"/>
-        <v>210000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -5974,7 +5975,7 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="3">
         <f t="shared" si="3"/>
         <v>312000</v>
       </c>
@@ -6005,7 +6006,7 @@
         <f t="shared" si="0"/>
         <v>900000</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -6036,7 +6037,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -6067,9 +6068,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6098,9 +6099,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6129,7 +6130,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="3">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
@@ -6160,7 +6161,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -6191,9 +6192,9 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="3">
         <f t="shared" si="3"/>
-        <v>67500</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -6222,7 +6223,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="3">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
@@ -6253,9 +6254,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="3">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -6284,9 +6285,9 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="3">
         <f t="shared" si="3"/>
-        <v>162500</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -6315,7 +6316,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
@@ -6346,9 +6347,9 @@
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="3">
         <f t="shared" si="3"/>
-        <v>42000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -6377,7 +6378,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="3">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
@@ -6408,7 +6409,7 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="3">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
@@ -6439,7 +6440,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="3">
         <f t="shared" si="3"/>
         <v>182000</v>
       </c>
